--- a/fML기초/99_과제/3_제주맛집_크롤링_지도/files/3_1_crawling_jejudoMatJip.xlsx
+++ b/fML기초/99_과제/3_제주맛집_크롤링_지도/files/3_1_crawling_jejudoMatJip.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>content</t>
   </si>
@@ -31,60 +31,54 @@
     <t>tags</t>
   </si>
   <si>
-    <t>유채꽃 프라자 좋아요ㅎㅎ</t>
-  </si>
-  <si>
-    <t>濟州島真的很棒</t>
-  </si>
-  <si>
-    <t>이쁜 피드 잘 보고 가염ㅎㅎ</t>
-  </si>
-  <si>
-    <t>와 너무 이쁘네요 제주도 가보고 싶네요 맞팔 신청 했어요</t>
-  </si>
-  <si>
-    <t>❤️</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t>1,881</t>
-  </si>
-  <si>
-    <t>8,283</t>
-  </si>
-  <si>
-    <t>1,487</t>
-  </si>
-  <si>
-    <t>1,093</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>유채꽃프라자</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>올여름은 제주도로 고고~제주갈치왕은 필수😍-여기갈치 요리가 최고로 맛있엉👍-제주산 갈치라 싱싱하고 살도 토실토실~해산물 폭탄으로 들어간 해물탕까지~살살 녹는 갈치요리 찐찐찐~ 맛집 갈치왕!🐟-여기 사장님의 손맛이 끝내주셔서밥 두공기는 기본으로 클리어~통갈치 해물찜과 술은 환상의 짝꿍~💏-🦄제주 풍경 보고~ 해산물, 갈치 요리 먹방하러 갈치왕으로~-@kingfish1190- 업체명 : 갈치왕 본점-주소 : 제주 서귀포시 일주서로 1146-전화 : 064-739-9333-#제주도맛집 #갈치왕#제주도맛집베스트 #제주도맛집추천#제주도맛집투어 #제주도핫플 #갈치맛집 #제주도갈치맛집 #제주갈치 #제주도갈치 #갈치구이맛집 #제주갈치구이 #제주갈치조림 #서귀포맛집추천 #제주가볼만한곳 #조림맛집 #제주도갈치맛집#좋반#좋아요반사#좋아요#좋반테러</t>
+  </si>
+  <si>
+    <t>애월카페 망고레이.새콤달콤 맛있는 망고와 함께 즐기는 제주바다망고레이에서 달콤한 망고와 함께즐거운 제주여행하세요~!...🍹망고레이(하귀본점)위치: 하귀9길 34, 애월해안도로 입구-영업시간: 10:00~18:00.🍹망고레이(함덕직영점)생망고와 수제코코넛아이스크림을 맛 볼 수 있는 곳!망고레이에서 다양하고 맛있는 디저트 만나보세요..#제주도맛집#제주여행#제주디저트카페 #제주도이색맛집#제주공항카페 #제주디저트 #조천읍카페#함덕해수욕장맛집#제주망고 #함덕해수욕장카페</t>
+  </si>
+  <si>
+    <t>이번에는 애월본점이춘옥고등어쌈밥♥공항근처라 많은분들이왔다갔다! 너무나도 유명한이춘옥원조고등어쌈밥!#애월카페 같은 느낌!추천합니다.#애월맛집 #제주도맛집#제주공항근처맛집 #이호테우해변맛집#제주가족식사 #제주도고등어조림 #고등어쌈밥 #고등어쌈밥🐟</t>
+  </si>
+  <si>
+    <t>성산일출봉 바라보면서 시원한 맥주와다양함 음식 맛보기!!!.뷰깡패 만큼 맛있는 감바스,엔칠라다 드시러 오세요~^^🥘🥘 오늘도 새벽 00시까지 콜👍🏻👍🏻👍🏻.-happy hour모든메뉴 30% 할인오후 3시부터 ~ 오후5시까지 주문시 (토,일 공휴일 제외)저녁 9시이후 ~ 마감시간까지(요일과 상관없이 적용됩니다.)-감사이벤트매월 말일은 소주 무제한으로 제공됩니다..🍔제주 서귀포시 성산읍 일출로 258-11 2층🍝새벽 0시까지 영업하는 Cafe &amp; Pub🍹064-784-0208🍻충전기,유아용식기,베이비체어 구비완료🍛#마가리따은혜씨⠀#서귀포맛집 #협재맛집 #애월맛집#제주도맛집 #제주도카페 #중문맛집#제주공항맛집 #제주공항근처맛집#월정리맛집 #종달리맛집 #제주중문맛집</t>
+  </si>
+  <si>
+    <t>#제주도여행 #성산일출봉맛집이건 꼭 먹어야 하는 갈비국수!!.⠀🌀#산도롱맨도롱🌀제주시 구좌읍 해맞이해안로 2284🌀영업시간 : 08:00 ~ 재료소진시까지🌀문의 : 064-782-5105⠀#제주맛집 #제주도맛집 #제주도카페 #월정리카페#제주도카페 #종달리맛집#서귀포맛집 #성산맛집</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>['#제주도맛집', '#갈치왕', '#제주도맛집베스트', '#제주도맛집추천', '#제주도맛집투어', '#제주도핫플', '#갈치맛집', '#제주도갈치맛집', '#제주갈치', '#제주도갈치', '#갈치구이맛집', '#제주갈치구이', '#제주갈치조림', '#서귀포맛집추천', '#제주가볼만한곳', '#조림맛집', '#제주도갈치맛집', '#좋반', '#좋아요반사', '#좋아요', '#좋반테러']</t>
+  </si>
+  <si>
+    <t>['#제주도맛집', '#제주여행', '#제주디저트카페', '#제주도이색맛집', '#제주공항카페', '#제주디저트', '#조천읍카페', '#함덕해수욕장맛집', '#제주망고', '#함덕해수욕장카페']</t>
+  </si>
+  <si>
+    <t>['#애월카페', '#애월맛집', '#제주도맛집', '#제주공항근처맛집', '#이호테우해변맛집', '#제주가족식사', '#제주도고등어조림', '#고등어쌈밥', '#고등어쌈밥🐟']</t>
+  </si>
+  <si>
+    <t>['#마가리따은혜씨⠀', '#서귀포맛집', '#협재맛집', '#애월맛집', '#제주도맛집', '#제주도카페', '#중문맛집', '#제주공항맛집', '#제주공항근처맛집', '#월정리맛집', '#종달리맛집', '#제주중문맛집']</t>
+  </si>
+  <si>
+    <t>['#제주도여행', '#성산일출봉맛집이건', '#산도롱맨도롱🌀제주시', '#제주맛집', '#제주도맛집', '#제주도카페', '#월정리카페', '#제주도카페', '#종달리맛집', '#서귀포맛집', '#성산맛집']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,15 +86,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,20 +133,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,108 +424,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>